--- a/profiles/gsq/scripts/geochemxl/tests/data/GeochemXL-v3.0-SURFACE_LITHOLOGY_02_invalid.xlsx
+++ b/profiles/gsq/scripts/geochemxl/tests/data/GeochemXL-v3.0-SURFACE_LITHOLOGY_02_invalid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Work/gsq/gsq-geochem/profiles/gsq/scripts/geochemxl/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC29565-356B-494A-A72A-10D26A03B851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C813C82A-AFF0-3946-A0F7-025789EB40A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="1360" windowWidth="99100" windowHeight="23280" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,10 +95,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="DAVIES Rhys - Personal View" guid="{853B6239-A439-411F-9927-AA08BF431DBB}" mergeInterval="0" personalView="1" xWindow="2926" yWindow="109" windowWidth="2700" windowHeight="1354" tabRatio="842" activeSheetId="9"/>
+    <customWorkbookView name="KELLY Vance - Personal View" guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" mergeInterval="0" personalView="1" maximized="1" xWindow="2391" yWindow="-678" windowWidth="2418" windowHeight="1368" tabRatio="842" activeSheetId="1" showComments="commIndAndComment"/>
+    <customWorkbookView name="HOY Derek - Personal View" guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="917" activeSheetId="6" showComments="commIndAndComment"/>
     <customWorkbookView name="TANG Joseph - Personal View" guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1928" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="842" activeSheetId="13"/>
-    <customWorkbookView name="HOY Derek - Personal View" guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="917" activeSheetId="6" showComments="commIndAndComment"/>
-    <customWorkbookView name="KELLY Vance - Personal View" guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" mergeInterval="0" personalView="1" maximized="1" xWindow="2391" yWindow="-678" windowWidth="2418" windowHeight="1368" tabRatio="842" activeSheetId="1" showComments="commIndAndComment"/>
-    <customWorkbookView name="DAVIES Rhys - Personal View" guid="{853B6239-A439-411F-9927-AA08BF431DBB}" mergeInterval="0" personalView="1" xWindow="2926" yWindow="109" windowWidth="2700" windowHeight="1354" tabRatio="842" activeSheetId="9"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="245">
   <si>
     <t>FIELD</t>
   </si>
@@ -851,6 +851,9 @@
   <si>
     <t>COLLECTION DATE: The date that the sample was collected. It is mandatory to report this in DD-MM-YYYY format.</t>
   </si>
+  <si>
+    <t>123457</t>
+  </si>
 </sst>
 </file>
 
@@ -1401,23 +1404,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
+          <fgColor rgb="FFFFCCCC"/>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -1538,7 +1532,6 @@
       </font>
       <fill>
         <patternFill>
-          <fgColor rgb="FFFFCCCC"/>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -1978,7 +1971,7 @@
   <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2855,7 +2848,7 @@
       </c>
       <c r="C10" s="73"/>
       <c r="D10" s="77" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="E10" s="79">
         <v>1234567</v>
@@ -3173,43 +3166,38 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="70" topLeftCell="X1">
-      <selection activeCell="AF10" sqref="AF10"/>
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="50" topLeftCell="Q1">
+      <selection activeCell="U14" sqref="U14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="55" topLeftCell="Q1">
+      <selection activeCell="D8" sqref="D8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="80">
       <selection activeCell="C2" sqref="C2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="55" topLeftCell="Q1">
-      <selection activeCell="D8" sqref="D8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="50" topLeftCell="Q1">
-      <selection activeCell="U14" sqref="U14"/>
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="70" topLeftCell="X1">
+      <selection activeCell="AF10" sqref="AF10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A3:J3 AI3:XFD3">
-    <cfRule type="containsText" dxfId="13" priority="39" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="12" priority="39" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Y">
+  <conditionalFormatting sqref="K3:AH3">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:AH3">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",L3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:M17 O9:O17" xr:uid="{00000000-0002-0000-1200-000000000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
@@ -3235,27 +3223,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:K17" xr:uid="{E87D506E-88C2-D148-80D9-DE036EA5B8C8}">
       <formula1>COLOUR</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G17 V9:V17" xr:uid="{00000000-0002-0000-1200-000007000000}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-1200-000007000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>G9:G17</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-1200-000008000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>V9:V17</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6052,34 +6025,34 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A3:I3">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:IV3">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9738,34 +9711,34 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A3:L3">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:IV3">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",N3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16752,34 +16725,34 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A3:P3">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:IV3">
-    <cfRule type="containsText" dxfId="7" priority="20" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="5" priority="20" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",S3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24844,39 +24817,39 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A3">
-    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="4" priority="15" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:S3">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:IV3">
-    <cfRule type="containsText" dxfId="4" priority="10" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",U3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25382,25 +25355,25 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25408,7 +25381,7 @@
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A3 Q3:IV3">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25827,25 +25800,25 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25853,7 +25826,7 @@
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A3:IV3">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25885,10 +25858,10 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" state="veryHidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" state="veryHidden">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" state="veryHidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" state="veryHidden">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -25897,15 +25870,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CE8352A0AF1CD4AB9B3521FB05BB06E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe27245e9bb914202a9dc14def4cd737">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc9fd5b5-cf46-4eda-9201-7118bc1c1603" xmlns:ns3="bcd33c6e-30cb-4633-b8ec-d716de95c77b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b8902f26a47aaca738f2017df961ee0" ns2:_="" ns3:_="">
     <xsd:import namespace="cc9fd5b5-cf46-4eda-9201-7118bc1c1603"/>
@@ -26136,6 +26100,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -26151,14 +26124,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEE68A9-1E3D-4013-A8AF-E88F960C4957}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF79EA6D-2196-4B94-BF37-7CE4AD2619E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26173,6 +26138,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEE68A9-1E3D-4013-A8AF-E88F960C4957}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
